--- a/Output/Metrics.xlsx
+++ b/Output/Metrics.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Count by AssetType" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Count by Community" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Count by Domain" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Count by Status" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Community</t>
   </si>
@@ -94,6 +95,24 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Candidate</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -792,4 +811,363 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>